--- a/Code/Results/Cases/Case_5_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_252/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.47247854352277</v>
+        <v>12.82367325436918</v>
       </c>
       <c r="C2">
-        <v>11.00282753891541</v>
+        <v>10.80812076374251</v>
       </c>
       <c r="D2">
-        <v>3.28853983330954</v>
+        <v>5.762113998742159</v>
       </c>
       <c r="E2">
-        <v>8.812427920124616</v>
+        <v>12.26887857873883</v>
       </c>
       <c r="F2">
-        <v>44.42181266799454</v>
+        <v>49.62168194613064</v>
       </c>
       <c r="I2">
-        <v>28.87421712462811</v>
+        <v>33.58131821716626</v>
       </c>
       <c r="J2">
-        <v>6.953693238372346</v>
+        <v>10.53500721825192</v>
       </c>
       <c r="K2">
-        <v>12.13354126666995</v>
+        <v>14.33777012433213</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.58236503585893</v>
+        <v>12.7046472654809</v>
       </c>
       <c r="C3">
-        <v>10.34798543002571</v>
+        <v>10.67941146970954</v>
       </c>
       <c r="D3">
-        <v>3.110374020657864</v>
+        <v>5.784470725151913</v>
       </c>
       <c r="E3">
-        <v>8.458704953450761</v>
+        <v>12.25277832548082</v>
       </c>
       <c r="F3">
-        <v>42.95447954273903</v>
+        <v>49.338782764414</v>
       </c>
       <c r="I3">
-        <v>28.18425171244028</v>
+        <v>33.44895099559947</v>
       </c>
       <c r="J3">
-        <v>6.83103271320169</v>
+        <v>10.53941767323616</v>
       </c>
       <c r="K3">
-        <v>11.40474411629749</v>
+        <v>14.26200877368638</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.00736102086195</v>
+        <v>12.63556066275467</v>
       </c>
       <c r="C4">
-        <v>9.934636709860268</v>
+        <v>10.60304012658471</v>
       </c>
       <c r="D4">
-        <v>2.995549809577873</v>
+        <v>5.79991149545407</v>
       </c>
       <c r="E4">
-        <v>8.241569034784256</v>
+        <v>12.24593843844214</v>
       </c>
       <c r="F4">
-        <v>42.05766452606049</v>
+        <v>49.17254849473643</v>
       </c>
       <c r="I4">
-        <v>27.76792927079472</v>
+        <v>33.37163555900013</v>
       </c>
       <c r="J4">
-        <v>6.759028812443832</v>
+        <v>10.54381052119556</v>
       </c>
       <c r="K4">
-        <v>10.99404173826013</v>
+        <v>14.2196401679356</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.76580008458476</v>
+        <v>12.60844648370819</v>
       </c>
       <c r="C5">
-        <v>9.763493872969665</v>
+        <v>10.57262339028272</v>
       </c>
       <c r="D5">
-        <v>2.947394533725705</v>
+        <v>5.806634368110952</v>
       </c>
       <c r="E5">
-        <v>8.153211289643455</v>
+        <v>12.243919280027</v>
       </c>
       <c r="F5">
-        <v>41.693536343763</v>
+        <v>49.10672361304849</v>
       </c>
       <c r="I5">
-        <v>27.60016480928391</v>
+        <v>33.3411365158642</v>
       </c>
       <c r="J5">
-        <v>6.730517363372702</v>
+        <v>10.54602432384741</v>
       </c>
       <c r="K5">
-        <v>10.82465458994539</v>
+        <v>14.20343390797323</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.7252493812408</v>
+        <v>12.60400791848347</v>
       </c>
       <c r="C6">
-        <v>9.73491742576249</v>
+        <v>10.56761636120386</v>
       </c>
       <c r="D6">
-        <v>2.939316164024663</v>
+        <v>5.807776695825498</v>
       </c>
       <c r="E6">
-        <v>8.13855081177017</v>
+        <v>12.2436304490014</v>
       </c>
       <c r="F6">
-        <v>41.6331626668828</v>
+        <v>49.09591030950782</v>
       </c>
       <c r="I6">
-        <v>27.57242335863778</v>
+        <v>33.33613336489243</v>
       </c>
       <c r="J6">
-        <v>6.725833173170124</v>
+        <v>10.54641751159053</v>
       </c>
       <c r="K6">
-        <v>10.79641219900732</v>
+        <v>14.20080728168064</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.00413267339285</v>
+        <v>12.6351907401761</v>
       </c>
       <c r="C7">
-        <v>9.932339340783841</v>
+        <v>10.60262701260483</v>
       </c>
       <c r="D7">
-        <v>2.994905886199213</v>
+        <v>5.800000419265725</v>
       </c>
       <c r="E7">
-        <v>8.240376736881757</v>
+        <v>12.24590809460756</v>
       </c>
       <c r="F7">
-        <v>42.05274796733985</v>
+        <v>49.17165294624628</v>
       </c>
       <c r="I7">
-        <v>27.76565901755669</v>
+        <v>33.37122014326376</v>
       </c>
       <c r="J7">
-        <v>6.758640936047478</v>
+        <v>10.54383866190975</v>
       </c>
       <c r="K7">
-        <v>10.99176523152084</v>
+        <v>14.21941729586232</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.17142428580555</v>
+        <v>12.78182507176859</v>
       </c>
       <c r="C8">
-        <v>10.77944590711471</v>
+        <v>10.7632131738173</v>
       </c>
       <c r="D8">
-        <v>3.228235149691534</v>
+        <v>5.769466781919637</v>
       </c>
       <c r="E8">
-        <v>8.69051751039788</v>
+        <v>12.26269661963092</v>
       </c>
       <c r="F8">
-        <v>43.91518261347148</v>
+        <v>49.52261298582704</v>
       </c>
       <c r="I8">
-        <v>28.634825923394</v>
+        <v>33.53486405176586</v>
       </c>
       <c r="J8">
-        <v>6.910711930056067</v>
+        <v>10.53617830776263</v>
       </c>
       <c r="K8">
-        <v>11.84165297976695</v>
+        <v>14.31079653714803</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.23870756598622</v>
+        <v>13.09946322363863</v>
       </c>
       <c r="C9">
-        <v>12.34731814293129</v>
+        <v>11.09749836741334</v>
       </c>
       <c r="D9">
-        <v>3.642823203195634</v>
+        <v>5.723197490012668</v>
       </c>
       <c r="E9">
-        <v>9.569440992847223</v>
+        <v>12.31965864233333</v>
       </c>
       <c r="F9">
-        <v>47.58948509256798</v>
+        <v>50.26823920801426</v>
       </c>
       <c r="I9">
-        <v>30.39563814758117</v>
+        <v>33.88659818694514</v>
       </c>
       <c r="J9">
-        <v>7.235288764095879</v>
+        <v>10.53452000206079</v>
       </c>
       <c r="K9">
-        <v>13.84660347198508</v>
+        <v>14.52213189331204</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.62866895432899</v>
+        <v>13.34888342351618</v>
       </c>
       <c r="C10">
-        <v>13.46236356707293</v>
+        <v>11.35255549580251</v>
       </c>
       <c r="D10">
-        <v>3.921631708520065</v>
+        <v>5.697508689806901</v>
       </c>
       <c r="E10">
-        <v>10.20850020491364</v>
+        <v>12.37595531932211</v>
       </c>
       <c r="F10">
-        <v>50.29181783940162</v>
+        <v>50.84839111424808</v>
       </c>
       <c r="I10">
-        <v>31.72251812026037</v>
+        <v>34.16297236067136</v>
       </c>
       <c r="J10">
-        <v>7.490094851880158</v>
+        <v>10.54143688829311</v>
       </c>
       <c r="K10">
-        <v>15.19584190273843</v>
+        <v>14.69584022476545</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.23458032304239</v>
+        <v>13.46532206065556</v>
       </c>
       <c r="C11">
-        <v>13.98631311342169</v>
+        <v>11.47012957071408</v>
       </c>
       <c r="D11">
-        <v>4.043020076428352</v>
+        <v>5.687626214347462</v>
       </c>
       <c r="E11">
-        <v>10.4972292154656</v>
+        <v>12.4046456224491</v>
       </c>
       <c r="F11">
-        <v>51.52073736960758</v>
+        <v>51.11872631340339</v>
       </c>
       <c r="I11">
-        <v>32.33351110294335</v>
+        <v>34.29240080880787</v>
       </c>
       <c r="J11">
-        <v>7.609671563331179</v>
+        <v>10.54634492011837</v>
       </c>
       <c r="K11">
-        <v>15.78440877128678</v>
+        <v>14.77859378814975</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.46037223867957</v>
+        <v>13.50979812393758</v>
       </c>
       <c r="C12">
-        <v>14.18216137079464</v>
+        <v>11.51483145700964</v>
       </c>
       <c r="D12">
-        <v>4.088220053226653</v>
+        <v>5.684143231824026</v>
       </c>
       <c r="E12">
-        <v>10.60625861818495</v>
+        <v>12.41594701778071</v>
       </c>
       <c r="F12">
-        <v>51.98603965207305</v>
+        <v>51.22196350732769</v>
       </c>
       <c r="I12">
-        <v>32.56598392972411</v>
+        <v>34.3419260030366</v>
       </c>
       <c r="J12">
-        <v>7.65549307296743</v>
+        <v>10.54845605109838</v>
       </c>
       <c r="K12">
-        <v>16.00380867072591</v>
+        <v>14.81044227488555</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.41190400272285</v>
+        <v>13.5002030761082</v>
       </c>
       <c r="C13">
-        <v>14.14009379242756</v>
+        <v>11.50519682465456</v>
       </c>
       <c r="D13">
-        <v>4.078519270146798</v>
+        <v>5.684881823784512</v>
       </c>
       <c r="E13">
-        <v>10.58279091223902</v>
+        <v>12.41349372621861</v>
       </c>
       <c r="F13">
-        <v>51.88583060115724</v>
+        <v>51.19969187823937</v>
       </c>
       <c r="I13">
-        <v>32.51586671531149</v>
+        <v>34.33123734641489</v>
       </c>
       <c r="J13">
-        <v>7.645600282142401</v>
+        <v>10.54799016160093</v>
       </c>
       <c r="K13">
-        <v>15.95670914547614</v>
+        <v>14.80356079658754</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25322872364921</v>
+        <v>13.46897370870759</v>
       </c>
       <c r="C14">
-        <v>14.00247625771691</v>
+        <v>11.47380387851388</v>
       </c>
       <c r="D14">
-        <v>4.046753981254399</v>
+        <v>5.687334471155474</v>
       </c>
       <c r="E14">
-        <v>10.50620531067296</v>
+        <v>12.40556667337949</v>
       </c>
       <c r="F14">
-        <v>51.55901910706352</v>
+        <v>51.12720264919736</v>
       </c>
       <c r="I14">
-        <v>32.35261433467438</v>
+        <v>34.29646509946371</v>
       </c>
       <c r="J14">
-        <v>7.613430399072678</v>
+        <v>10.54651354707121</v>
       </c>
       <c r="K14">
-        <v>15.80252773492666</v>
+        <v>14.78120387912801</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.15556416158626</v>
+        <v>13.44989340199563</v>
       </c>
       <c r="C15">
-        <v>13.9178518330849</v>
+        <v>11.45459684143334</v>
       </c>
       <c r="D15">
-        <v>4.027197429040955</v>
+        <v>5.688870553743898</v>
       </c>
       <c r="E15">
-        <v>10.45925429137279</v>
+        <v>12.40076784677554</v>
       </c>
       <c r="F15">
-        <v>51.3588304838296</v>
+        <v>51.08291213005883</v>
       </c>
       <c r="I15">
-        <v>32.25276290820621</v>
+        <v>34.27523237399373</v>
       </c>
       <c r="J15">
-        <v>7.593796287142548</v>
+        <v>10.54564194523881</v>
       </c>
       <c r="K15">
-        <v>15.70763889612031</v>
+        <v>14.76757546846936</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.58855195528794</v>
+        <v>13.34132996057766</v>
       </c>
       <c r="C16">
-        <v>13.42775741952387</v>
+        <v>11.3448991737384</v>
       </c>
       <c r="D16">
-        <v>3.913590426332719</v>
+        <v>5.698190821969225</v>
       </c>
       <c r="E16">
-        <v>10.18958894480697</v>
+        <v>12.37414183263208</v>
       </c>
       <c r="F16">
-        <v>50.21149500012946</v>
+        <v>50.83084851618026</v>
       </c>
       <c r="I16">
-        <v>31.68273976191733</v>
+        <v>34.15458682578289</v>
       </c>
       <c r="J16">
-        <v>7.482354998744632</v>
+        <v>10.54115152320798</v>
       </c>
       <c r="K16">
-        <v>15.15688269694877</v>
+        <v>14.69050506165104</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.23404557334741</v>
+        <v>13.27546039875715</v>
       </c>
       <c r="C17">
-        <v>13.12696922610575</v>
+        <v>11.27796854807897</v>
       </c>
       <c r="D17">
-        <v>3.842512242537669</v>
+        <v>5.70437041874561</v>
       </c>
       <c r="E17">
-        <v>10.02362900624722</v>
+        <v>12.35859259368247</v>
       </c>
       <c r="F17">
-        <v>49.50751495289636</v>
+        <v>50.677820821625</v>
       </c>
       <c r="I17">
-        <v>31.33496108692459</v>
+        <v>34.08151008609274</v>
       </c>
       <c r="J17">
-        <v>7.414935839562338</v>
+        <v>10.53884748040092</v>
       </c>
       <c r="K17">
-        <v>14.81265568525329</v>
+        <v>14.64416327253778</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.02764978291825</v>
+        <v>13.23785680620044</v>
       </c>
       <c r="C18">
-        <v>12.96414402204127</v>
+        <v>11.23962004424547</v>
       </c>
       <c r="D18">
-        <v>3.801116515608987</v>
+        <v>5.708094520389671</v>
       </c>
       <c r="E18">
-        <v>9.927986668533949</v>
+        <v>12.34993944710561</v>
       </c>
       <c r="F18">
-        <v>49.10256408562531</v>
+        <v>50.5904112167125</v>
       </c>
       <c r="I18">
-        <v>31.1356193408337</v>
+        <v>34.03982817042017</v>
       </c>
       <c r="J18">
-        <v>7.376501919185237</v>
+        <v>10.53768811043357</v>
       </c>
       <c r="K18">
-        <v>14.61228308506337</v>
+        <v>14.61786162931324</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.95733544669902</v>
+        <v>13.22517480871171</v>
       </c>
       <c r="C19">
-        <v>12.90880697644547</v>
+        <v>11.22666268415768</v>
       </c>
       <c r="D19">
-        <v>3.787012025507029</v>
+        <v>5.709384593682034</v>
       </c>
       <c r="E19">
-        <v>9.895572740621224</v>
+        <v>12.34705968346358</v>
       </c>
       <c r="F19">
-        <v>48.96544919714883</v>
+        <v>50.56092191466101</v>
       </c>
       <c r="I19">
-        <v>31.06824363348278</v>
+        <v>34.0257760556673</v>
       </c>
       <c r="J19">
-        <v>7.363547574717478</v>
+        <v>10.53732407341582</v>
       </c>
       <c r="K19">
-        <v>14.54402693083028</v>
+        <v>14.60901771337292</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.27204043061873</v>
+        <v>13.28244337616386</v>
       </c>
       <c r="C20">
-        <v>13.1570063165449</v>
+        <v>11.28507840244652</v>
       </c>
       <c r="D20">
-        <v>3.85013167199986</v>
+        <v>5.703695020555439</v>
       </c>
       <c r="E20">
-        <v>10.04131525038117</v>
+        <v>12.3602178266373</v>
       </c>
       <c r="F20">
-        <v>49.58245927449217</v>
+        <v>50.69404837011774</v>
       </c>
       <c r="I20">
-        <v>31.37191096936282</v>
+        <v>34.08925315400219</v>
       </c>
       <c r="J20">
-        <v>7.42207706154739</v>
+        <v>10.53907558927593</v>
       </c>
       <c r="K20">
-        <v>14.84954477662237</v>
+        <v>14.64906008822748</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.2999334606963</v>
+        <v>13.47813648647525</v>
       </c>
       <c r="C21">
-        <v>14.04296634479948</v>
+        <v>11.48302022954055</v>
       </c>
       <c r="D21">
-        <v>4.056104898626844</v>
+        <v>5.686607032723392</v>
       </c>
       <c r="E21">
-        <v>10.52870872951647</v>
+        <v>12.40788323164443</v>
       </c>
       <c r="F21">
-        <v>51.65501296230849</v>
+        <v>51.14847141603853</v>
       </c>
       <c r="I21">
-        <v>32.40053510507017</v>
+        <v>34.30666477420653</v>
       </c>
       <c r="J21">
-        <v>7.62286467220444</v>
+        <v>10.54694041657419</v>
       </c>
       <c r="K21">
-        <v>15.84790768904241</v>
+        <v>14.78775697173696</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.95050128170559</v>
+        <v>13.60824641611685</v>
       </c>
       <c r="C22">
-        <v>14.60838419555696</v>
+        <v>11.61341104720652</v>
       </c>
       <c r="D22">
-        <v>4.186258037490846</v>
+        <v>5.676950339484788</v>
       </c>
       <c r="E22">
-        <v>10.84546975494628</v>
+        <v>12.44157930171672</v>
       </c>
       <c r="F22">
-        <v>53.00923086452276</v>
+        <v>51.45049017529051</v>
       </c>
       <c r="I22">
-        <v>33.07927142982947</v>
+        <v>34.45173907222897</v>
       </c>
       <c r="J22">
-        <v>7.757251335054067</v>
+        <v>10.55355223919308</v>
       </c>
       <c r="K22">
-        <v>16.48020443287893</v>
+        <v>14.88137248592598</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.60517215248053</v>
+        <v>13.53861661795762</v>
       </c>
       <c r="C23">
-        <v>14.30792656747225</v>
+        <v>11.54373948348971</v>
       </c>
       <c r="D23">
-        <v>4.117195245250364</v>
+        <v>5.68196605221546</v>
       </c>
       <c r="E23">
-        <v>10.67657281230903</v>
+        <v>12.42336443565189</v>
       </c>
       <c r="F23">
-        <v>52.28647104821135</v>
+        <v>51.2888561065851</v>
       </c>
       <c r="I23">
-        <v>32.71640341327587</v>
+        <v>34.37404380828269</v>
       </c>
       <c r="J23">
-        <v>7.685231517205722</v>
+        <v>10.54988900472113</v>
       </c>
       <c r="K23">
-        <v>16.1445307668881</v>
+        <v>14.83114504497181</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.25487101892083</v>
+        <v>13.2792855410681</v>
       </c>
       <c r="C24">
-        <v>13.14343051782157</v>
+        <v>11.28186362655061</v>
       </c>
       <c r="D24">
-        <v>3.846688585928575</v>
+        <v>5.703999834285584</v>
       </c>
       <c r="E24">
-        <v>10.03332001320283</v>
+        <v>12.35948216654494</v>
       </c>
       <c r="F24">
-        <v>49.54857764086841</v>
+        <v>50.68671012168502</v>
       </c>
       <c r="I24">
-        <v>31.35520405866119</v>
+        <v>34.08575148084693</v>
       </c>
       <c r="J24">
-        <v>7.418847499826188</v>
+        <v>10.53897194645764</v>
       </c>
       <c r="K24">
-        <v>14.83287492880545</v>
+        <v>14.64684517417809</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70257616746875</v>
+        <v>13.01054333336234</v>
       </c>
       <c r="C25">
-        <v>11.9335420205618</v>
+        <v>11.00523134630696</v>
       </c>
       <c r="D25">
-        <v>3.535236169473409</v>
+        <v>5.73425649413678</v>
       </c>
       <c r="E25">
-        <v>9.332594490055236</v>
+        <v>12.30169429674732</v>
       </c>
       <c r="F25">
-        <v>46.5944237122757</v>
+        <v>50.06064657146874</v>
       </c>
       <c r="I25">
-        <v>29.91343448924645</v>
+        <v>33.78822663366923</v>
       </c>
       <c r="J25">
-        <v>7.144638645237797</v>
+        <v>10.53353860075547</v>
       </c>
       <c r="K25">
-        <v>13.326472876334</v>
+        <v>14.46163248660981</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_252/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.82367325436918</v>
+        <v>12.47247854352284</v>
       </c>
       <c r="C2">
-        <v>10.80812076374251</v>
+        <v>11.00282753891541</v>
       </c>
       <c r="D2">
-        <v>5.762113998742159</v>
+        <v>3.288539833309644</v>
       </c>
       <c r="E2">
-        <v>12.26887857873883</v>
+        <v>8.812427920124566</v>
       </c>
       <c r="F2">
-        <v>49.62168194613064</v>
+        <v>44.42181266799451</v>
       </c>
       <c r="I2">
-        <v>33.58131821716626</v>
+        <v>28.87421712462807</v>
       </c>
       <c r="J2">
-        <v>10.53500721825192</v>
+        <v>6.953693238372311</v>
       </c>
       <c r="K2">
-        <v>14.33777012433213</v>
+        <v>12.13354126666992</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.7046472654809</v>
+        <v>11.58236503585882</v>
       </c>
       <c r="C3">
-        <v>10.67941146970954</v>
+        <v>10.34798543002568</v>
       </c>
       <c r="D3">
-        <v>5.784470725151913</v>
+        <v>3.110374020657962</v>
       </c>
       <c r="E3">
-        <v>12.25277832548082</v>
+        <v>8.458704953450779</v>
       </c>
       <c r="F3">
-        <v>49.338782764414</v>
+        <v>42.95447954273916</v>
       </c>
       <c r="I3">
-        <v>33.44895099559947</v>
+        <v>28.18425171244046</v>
       </c>
       <c r="J3">
-        <v>10.53941767323616</v>
+        <v>6.831032713201759</v>
       </c>
       <c r="K3">
-        <v>14.26200877368638</v>
+        <v>11.40474411629752</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63556066275467</v>
+        <v>11.00736102086198</v>
       </c>
       <c r="C4">
-        <v>10.60304012658471</v>
+        <v>9.934636709860282</v>
       </c>
       <c r="D4">
-        <v>5.79991149545407</v>
+        <v>2.9955498095779</v>
       </c>
       <c r="E4">
-        <v>12.24593843844214</v>
+        <v>8.241569034784185</v>
       </c>
       <c r="F4">
-        <v>49.17254849473643</v>
+        <v>42.05766452606044</v>
       </c>
       <c r="I4">
-        <v>33.37163555900013</v>
+        <v>27.76792927079467</v>
       </c>
       <c r="J4">
-        <v>10.54381052119556</v>
+        <v>6.759028812443836</v>
       </c>
       <c r="K4">
-        <v>14.2196401679356</v>
+        <v>10.99404173826015</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60844648370819</v>
+        <v>10.76580008458471</v>
       </c>
       <c r="C5">
-        <v>10.57262339028272</v>
+        <v>9.763493872969651</v>
       </c>
       <c r="D5">
-        <v>5.806634368110952</v>
+        <v>2.947394533725726</v>
       </c>
       <c r="E5">
-        <v>12.243919280027</v>
+        <v>8.153211289643448</v>
       </c>
       <c r="F5">
-        <v>49.10672361304849</v>
+        <v>41.69353634376323</v>
       </c>
       <c r="I5">
-        <v>33.3411365158642</v>
+        <v>27.6001648092841</v>
       </c>
       <c r="J5">
-        <v>10.54602432384741</v>
+        <v>6.730517363372786</v>
       </c>
       <c r="K5">
-        <v>14.20343390797323</v>
+        <v>10.82465458994541</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.60400791848347</v>
+        <v>10.72524938124081</v>
       </c>
       <c r="C6">
-        <v>10.56761636120386</v>
+        <v>9.734917425762433</v>
       </c>
       <c r="D6">
-        <v>5.807776695825498</v>
+        <v>2.939316164024634</v>
       </c>
       <c r="E6">
-        <v>12.2436304490014</v>
+        <v>8.13855081177012</v>
       </c>
       <c r="F6">
-        <v>49.09591030950782</v>
+        <v>41.63316266688295</v>
       </c>
       <c r="I6">
-        <v>33.33613336489243</v>
+        <v>27.57242335863792</v>
       </c>
       <c r="J6">
-        <v>10.54641751159053</v>
+        <v>6.725833173170045</v>
       </c>
       <c r="K6">
-        <v>14.20080728168064</v>
+        <v>10.79641219900733</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.6351907401761</v>
+        <v>11.00413267339292</v>
       </c>
       <c r="C7">
-        <v>10.60262701260483</v>
+        <v>9.932339340783857</v>
       </c>
       <c r="D7">
-        <v>5.800000419265725</v>
+        <v>2.994905886199257</v>
       </c>
       <c r="E7">
-        <v>12.24590809460756</v>
+        <v>8.240376736881764</v>
       </c>
       <c r="F7">
-        <v>49.17165294624628</v>
+        <v>42.05274796733975</v>
       </c>
       <c r="I7">
-        <v>33.37122014326376</v>
+        <v>27.7656590175566</v>
       </c>
       <c r="J7">
-        <v>10.54383866190975</v>
+        <v>6.758640936047475</v>
       </c>
       <c r="K7">
-        <v>14.21941729586232</v>
+        <v>10.99176523152082</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.78182507176859</v>
+        <v>12.17142428580549</v>
       </c>
       <c r="C8">
-        <v>10.7632131738173</v>
+        <v>10.77944590711466</v>
       </c>
       <c r="D8">
-        <v>5.769466781919637</v>
+        <v>3.22823514969162</v>
       </c>
       <c r="E8">
-        <v>12.26269661963092</v>
+        <v>8.69051751039783</v>
       </c>
       <c r="F8">
-        <v>49.52261298582704</v>
+        <v>43.91518261347144</v>
       </c>
       <c r="I8">
-        <v>33.53486405176586</v>
+        <v>28.63482592339402</v>
       </c>
       <c r="J8">
-        <v>10.53617830776263</v>
+        <v>6.910711930056094</v>
       </c>
       <c r="K8">
-        <v>14.31079653714803</v>
+        <v>11.84165297976698</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.09946322363863</v>
+        <v>14.23870756598622</v>
       </c>
       <c r="C9">
-        <v>11.09749836741334</v>
+        <v>12.34731814293128</v>
       </c>
       <c r="D9">
-        <v>5.723197490012668</v>
+        <v>3.642823203195713</v>
       </c>
       <c r="E9">
-        <v>12.31965864233333</v>
+        <v>9.569440992847197</v>
       </c>
       <c r="F9">
-        <v>50.26823920801426</v>
+        <v>47.58948509256815</v>
       </c>
       <c r="I9">
-        <v>33.88659818694514</v>
+        <v>30.39563814758129</v>
       </c>
       <c r="J9">
-        <v>10.53452000206079</v>
+        <v>7.2352887640959</v>
       </c>
       <c r="K9">
-        <v>14.52213189331204</v>
+        <v>13.84660347198508</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.34888342351618</v>
+        <v>15.62866895432909</v>
       </c>
       <c r="C10">
-        <v>11.35255549580251</v>
+        <v>13.46236356707293</v>
       </c>
       <c r="D10">
-        <v>5.697508689806901</v>
+        <v>3.921631708520162</v>
       </c>
       <c r="E10">
-        <v>12.37595531932211</v>
+        <v>10.2085002049136</v>
       </c>
       <c r="F10">
-        <v>50.84839111424808</v>
+        <v>50.29181783940157</v>
       </c>
       <c r="I10">
-        <v>34.16297236067136</v>
+        <v>31.72251812026033</v>
       </c>
       <c r="J10">
-        <v>10.54143688829311</v>
+        <v>7.490094851880132</v>
       </c>
       <c r="K10">
-        <v>14.69584022476545</v>
+        <v>15.19584190273849</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.46532206065556</v>
+        <v>16.23458032304254</v>
       </c>
       <c r="C11">
-        <v>11.47012957071408</v>
+        <v>13.98631311342164</v>
       </c>
       <c r="D11">
-        <v>5.687626214347462</v>
+        <v>4.043020076428352</v>
       </c>
       <c r="E11">
-        <v>12.4046456224491</v>
+        <v>10.49722921546555</v>
       </c>
       <c r="F11">
-        <v>51.11872631340339</v>
+        <v>51.52073736960783</v>
       </c>
       <c r="I11">
-        <v>34.29240080880787</v>
+        <v>32.33351110294345</v>
       </c>
       <c r="J11">
-        <v>10.54634492011837</v>
+        <v>7.609671563331164</v>
       </c>
       <c r="K11">
-        <v>14.77859378814975</v>
+        <v>15.78440877128686</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.50979812393758</v>
+        <v>16.46037223867962</v>
       </c>
       <c r="C12">
-        <v>11.51483145700964</v>
+        <v>14.18216137079461</v>
       </c>
       <c r="D12">
-        <v>5.684143231824026</v>
+        <v>4.088220053226772</v>
       </c>
       <c r="E12">
-        <v>12.41594701778071</v>
+        <v>10.60625861818493</v>
       </c>
       <c r="F12">
-        <v>51.22196350732769</v>
+        <v>51.98603965207306</v>
       </c>
       <c r="I12">
-        <v>34.3419260030366</v>
+        <v>32.5659839297241</v>
       </c>
       <c r="J12">
-        <v>10.54845605109838</v>
+        <v>7.655493072967482</v>
       </c>
       <c r="K12">
-        <v>14.81044227488555</v>
+        <v>16.00380867072593</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.5002030761082</v>
+        <v>16.41190400272299</v>
       </c>
       <c r="C13">
-        <v>11.50519682465456</v>
+        <v>14.14009379242752</v>
       </c>
       <c r="D13">
-        <v>5.684881823784512</v>
+        <v>4.078519270146943</v>
       </c>
       <c r="E13">
-        <v>12.41349372621861</v>
+        <v>10.58279091223898</v>
       </c>
       <c r="F13">
-        <v>51.19969187823937</v>
+        <v>51.88583060115746</v>
       </c>
       <c r="I13">
-        <v>34.33123734641489</v>
+        <v>32.51586671531165</v>
       </c>
       <c r="J13">
-        <v>10.54799016160093</v>
+        <v>7.645600282142392</v>
       </c>
       <c r="K13">
-        <v>14.80356079658754</v>
+        <v>15.95670914547623</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.46897370870759</v>
+        <v>16.25322872364928</v>
       </c>
       <c r="C14">
-        <v>11.47380387851388</v>
+        <v>14.00247625771681</v>
       </c>
       <c r="D14">
-        <v>5.687334471155474</v>
+        <v>4.046753981254579</v>
       </c>
       <c r="E14">
-        <v>12.40556667337949</v>
+        <v>10.50620531067296</v>
       </c>
       <c r="F14">
-        <v>51.12720264919736</v>
+        <v>51.5590191070635</v>
       </c>
       <c r="I14">
-        <v>34.29646509946371</v>
+        <v>32.35261433467435</v>
       </c>
       <c r="J14">
-        <v>10.54651354707121</v>
+        <v>7.613430399072723</v>
       </c>
       <c r="K14">
-        <v>14.78120387912801</v>
+        <v>15.80252773492666</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.44989340199563</v>
+        <v>16.15556416158625</v>
       </c>
       <c r="C15">
-        <v>11.45459684143334</v>
+        <v>13.9178518330848</v>
       </c>
       <c r="D15">
-        <v>5.688870553743898</v>
+        <v>4.027197429041194</v>
       </c>
       <c r="E15">
-        <v>12.40076784677554</v>
+        <v>10.45925429137275</v>
       </c>
       <c r="F15">
-        <v>51.08291213005883</v>
+        <v>51.35883048382962</v>
       </c>
       <c r="I15">
-        <v>34.27523237399373</v>
+        <v>32.25276290820627</v>
       </c>
       <c r="J15">
-        <v>10.54564194523881</v>
+        <v>7.593796287142511</v>
       </c>
       <c r="K15">
-        <v>14.76757546846936</v>
+        <v>15.70763889612027</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.34132996057766</v>
+        <v>15.58855195528793</v>
       </c>
       <c r="C16">
-        <v>11.3448991737384</v>
+        <v>13.42775741952378</v>
       </c>
       <c r="D16">
-        <v>5.698190821969225</v>
+        <v>3.913590426332853</v>
       </c>
       <c r="E16">
-        <v>12.37414183263208</v>
+        <v>10.18958894480693</v>
       </c>
       <c r="F16">
-        <v>50.83084851618026</v>
+        <v>50.21149500012955</v>
       </c>
       <c r="I16">
-        <v>34.15458682578289</v>
+        <v>31.68273976191741</v>
       </c>
       <c r="J16">
-        <v>10.54115152320798</v>
+        <v>7.482354998744685</v>
       </c>
       <c r="K16">
-        <v>14.69050506165104</v>
+        <v>15.15688269694872</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.27546039875715</v>
+        <v>15.23404557334753</v>
       </c>
       <c r="C17">
-        <v>11.27796854807897</v>
+        <v>13.12696922610577</v>
       </c>
       <c r="D17">
-        <v>5.70437041874561</v>
+        <v>3.842512242537778</v>
       </c>
       <c r="E17">
-        <v>12.35859259368247</v>
+        <v>10.02362900624717</v>
       </c>
       <c r="F17">
-        <v>50.677820821625</v>
+        <v>49.50751495289641</v>
       </c>
       <c r="I17">
-        <v>34.08151008609274</v>
+        <v>31.33496108692463</v>
       </c>
       <c r="J17">
-        <v>10.53884748040092</v>
+        <v>7.414935839562318</v>
       </c>
       <c r="K17">
-        <v>14.64416327253778</v>
+        <v>14.81265568525336</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.23785680620044</v>
+        <v>15.02764978291835</v>
       </c>
       <c r="C18">
-        <v>11.23962004424547</v>
+        <v>12.96414402204128</v>
       </c>
       <c r="D18">
-        <v>5.708094520389671</v>
+        <v>3.801116515608831</v>
       </c>
       <c r="E18">
-        <v>12.34993944710561</v>
+        <v>9.927986668533961</v>
       </c>
       <c r="F18">
-        <v>50.5904112167125</v>
+        <v>49.10256408562536</v>
       </c>
       <c r="I18">
-        <v>34.03982817042017</v>
+        <v>31.13561934083372</v>
       </c>
       <c r="J18">
-        <v>10.53768811043357</v>
+        <v>7.376501919185155</v>
       </c>
       <c r="K18">
-        <v>14.61786162931324</v>
+        <v>14.61228308506343</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.22517480871171</v>
+        <v>14.95733544669898</v>
       </c>
       <c r="C19">
-        <v>11.22666268415768</v>
+        <v>12.90880697644544</v>
       </c>
       <c r="D19">
-        <v>5.709384593682034</v>
+        <v>3.787012025507118</v>
       </c>
       <c r="E19">
-        <v>12.34705968346358</v>
+        <v>9.895572740621226</v>
       </c>
       <c r="F19">
-        <v>50.56092191466101</v>
+        <v>48.965449197149</v>
       </c>
       <c r="I19">
-        <v>34.0257760556673</v>
+        <v>31.06824363348299</v>
       </c>
       <c r="J19">
-        <v>10.53732407341582</v>
+        <v>7.36354757471756</v>
       </c>
       <c r="K19">
-        <v>14.60901771337292</v>
+        <v>14.54402693083026</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.28244337616386</v>
+        <v>15.27204043061879</v>
       </c>
       <c r="C20">
-        <v>11.28507840244652</v>
+        <v>13.15700631654489</v>
       </c>
       <c r="D20">
-        <v>5.703695020555439</v>
+        <v>3.850131672000027</v>
       </c>
       <c r="E20">
-        <v>12.3602178266373</v>
+        <v>10.04131525038112</v>
       </c>
       <c r="F20">
-        <v>50.69404837011774</v>
+        <v>49.58245927449224</v>
       </c>
       <c r="I20">
-        <v>34.08925315400219</v>
+        <v>31.3719109693629</v>
       </c>
       <c r="J20">
-        <v>10.53907558927593</v>
+        <v>7.42207706154735</v>
       </c>
       <c r="K20">
-        <v>14.64906008822748</v>
+        <v>14.84954477662236</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.47813648647525</v>
+        <v>16.29993346069623</v>
       </c>
       <c r="C21">
-        <v>11.48302022954055</v>
+        <v>14.04296634479946</v>
       </c>
       <c r="D21">
-        <v>5.686607032723392</v>
+        <v>4.056104898626988</v>
       </c>
       <c r="E21">
-        <v>12.40788323164443</v>
+        <v>10.52870872951644</v>
       </c>
       <c r="F21">
-        <v>51.14847141603853</v>
+        <v>51.65501296230843</v>
       </c>
       <c r="I21">
-        <v>34.30666477420653</v>
+        <v>32.40053510507018</v>
       </c>
       <c r="J21">
-        <v>10.54694041657419</v>
+        <v>7.622864672204438</v>
       </c>
       <c r="K21">
-        <v>14.78775697173696</v>
+        <v>15.84790768904236</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.60824641611685</v>
+        <v>16.95050128170577</v>
       </c>
       <c r="C22">
-        <v>11.61341104720652</v>
+        <v>14.60838419555682</v>
       </c>
       <c r="D22">
-        <v>5.676950339484788</v>
+        <v>4.186258037490883</v>
       </c>
       <c r="E22">
-        <v>12.44157930171672</v>
+        <v>10.84546975494627</v>
       </c>
       <c r="F22">
-        <v>51.45049017529051</v>
+        <v>53.00923086452273</v>
       </c>
       <c r="I22">
-        <v>34.45173907222897</v>
+        <v>33.07927142982943</v>
       </c>
       <c r="J22">
-        <v>10.55355223919308</v>
+        <v>7.757251335054022</v>
       </c>
       <c r="K22">
-        <v>14.88137248592598</v>
+        <v>16.48020443287897</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.53861661795762</v>
+        <v>16.6051721524805</v>
       </c>
       <c r="C23">
-        <v>11.54373948348971</v>
+        <v>14.3079265674723</v>
       </c>
       <c r="D23">
-        <v>5.68196605221546</v>
+        <v>4.117195245250147</v>
       </c>
       <c r="E23">
-        <v>12.42336443565189</v>
+        <v>10.67657281230902</v>
       </c>
       <c r="F23">
-        <v>51.2888561065851</v>
+        <v>52.28647104821147</v>
       </c>
       <c r="I23">
-        <v>34.37404380828269</v>
+        <v>32.71640341327597</v>
       </c>
       <c r="J23">
-        <v>10.54988900472113</v>
+        <v>7.685231517205724</v>
       </c>
       <c r="K23">
-        <v>14.83114504497181</v>
+        <v>16.14453076688811</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.2792855410681</v>
+        <v>15.25487101892075</v>
       </c>
       <c r="C24">
-        <v>11.28186362655061</v>
+        <v>13.14343051782159</v>
       </c>
       <c r="D24">
-        <v>5.703999834285584</v>
+        <v>3.846688585928516</v>
       </c>
       <c r="E24">
-        <v>12.35948216654494</v>
+        <v>10.03332001320284</v>
       </c>
       <c r="F24">
-        <v>50.68671012168502</v>
+        <v>49.54857764086862</v>
       </c>
       <c r="I24">
-        <v>34.08575148084693</v>
+        <v>31.35520405866135</v>
       </c>
       <c r="J24">
-        <v>10.53897194645764</v>
+        <v>7.418847499826256</v>
       </c>
       <c r="K24">
-        <v>14.64684517417809</v>
+        <v>14.83287492880536</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.01054333336234</v>
+        <v>13.70257616746872</v>
       </c>
       <c r="C25">
-        <v>11.00523134630696</v>
+        <v>11.93354202056181</v>
       </c>
       <c r="D25">
-        <v>5.73425649413678</v>
+        <v>3.535236169473404</v>
       </c>
       <c r="E25">
-        <v>12.30169429674732</v>
+        <v>9.332594490055257</v>
       </c>
       <c r="F25">
-        <v>50.06064657146874</v>
+        <v>46.59442371227574</v>
       </c>
       <c r="I25">
-        <v>33.78822663366923</v>
+        <v>29.9134344892465</v>
       </c>
       <c r="J25">
-        <v>10.53353860075547</v>
+        <v>7.144638645237858</v>
       </c>
       <c r="K25">
-        <v>14.46163248660981</v>
+        <v>13.32647287633399</v>
       </c>
       <c r="L25">
         <v>0</v>
